--- a/Code/Results/Cases/Case_5_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_163/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.139162226358252</v>
+        <v>1.165568306009249</v>
       </c>
       <c r="C2">
-        <v>0.06839903901562039</v>
+        <v>0.0334234178857109</v>
       </c>
       <c r="D2">
-        <v>0.4474298933270973</v>
+        <v>0.3090660498759803</v>
       </c>
       <c r="E2">
-        <v>0.06993801069856787</v>
+        <v>0.08600710581194093</v>
       </c>
       <c r="F2">
-        <v>6.936454089477337</v>
+        <v>4.618477121752477</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8564354838279371</v>
+        <v>0.6763136704455803</v>
       </c>
       <c r="L2">
-        <v>0.2429257196445462</v>
+        <v>0.2225196855931131</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9994847851961879</v>
+        <v>1.145630774578621</v>
       </c>
       <c r="C3">
-        <v>0.06181711267427659</v>
+        <v>0.03160631916467338</v>
       </c>
       <c r="D3">
-        <v>0.4097053872141458</v>
+        <v>0.2967283011829522</v>
       </c>
       <c r="E3">
-        <v>0.0640116101097874</v>
+        <v>0.08467592048555161</v>
       </c>
       <c r="F3">
-        <v>6.218941232599263</v>
+        <v>4.405935134467256</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7399788302273009</v>
+        <v>0.6589400703126387</v>
       </c>
       <c r="L3">
-        <v>0.2147322958560096</v>
+        <v>0.2168610581895081</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9164131117154852</v>
+        <v>1.134448267733461</v>
       </c>
       <c r="C4">
-        <v>0.05785589861375229</v>
+        <v>0.03046620734637884</v>
       </c>
       <c r="D4">
-        <v>0.3868202614532095</v>
+        <v>0.2890757357964588</v>
       </c>
       <c r="E4">
-        <v>0.06045964405642223</v>
+        <v>0.08388671296320993</v>
       </c>
       <c r="F4">
-        <v>5.78545673453462</v>
+        <v>4.27568200701856</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6706712186431076</v>
+        <v>0.6490472067142861</v>
       </c>
       <c r="L4">
-        <v>0.1978693482172673</v>
+        <v>0.2135342625218755</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8831665899369909</v>
+        <v>1.130157057674921</v>
       </c>
       <c r="C5">
-        <v>0.0562568613332104</v>
+        <v>0.02999531420208257</v>
       </c>
       <c r="D5">
-        <v>0.3775496167973813</v>
+        <v>0.2859374313792102</v>
       </c>
       <c r="E5">
-        <v>0.05903183328418038</v>
+        <v>0.08357216748360585</v>
       </c>
       <c r="F5">
-        <v>5.610325781569003</v>
+        <v>4.222660805723308</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.642917067972121</v>
+        <v>0.6452098223988401</v>
       </c>
       <c r="L5">
-        <v>0.1910980412505836</v>
+        <v>0.2122155782463295</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8776806721882622</v>
+        <v>1.129460539230024</v>
       </c>
       <c r="C6">
-        <v>0.05599212391048525</v>
+        <v>0.0299167385449195</v>
       </c>
       <c r="D6">
-        <v>0.3760131638675119</v>
+        <v>0.2854151087299499</v>
       </c>
       <c r="E6">
-        <v>0.05879587202061387</v>
+        <v>0.08352036362281723</v>
       </c>
       <c r="F6">
-        <v>5.581329870163131</v>
+        <v>4.213860048901381</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6383363209709074</v>
+        <v>0.6445843257182844</v>
       </c>
       <c r="L6">
-        <v>0.1899794041773504</v>
+        <v>0.2119988440229292</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9159623733718263</v>
+        <v>1.134389319740308</v>
       </c>
       <c r="C7">
-        <v>0.05783427814034781</v>
+        <v>0.03045988237635555</v>
       </c>
       <c r="D7">
-        <v>0.3866950291486262</v>
+        <v>0.2890334923381914</v>
       </c>
       <c r="E7">
-        <v>0.06044031133594885</v>
+        <v>0.08388244231311859</v>
       </c>
       <c r="F7">
-        <v>5.783089041445265</v>
+        <v>4.274966715616443</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6702950149149132</v>
+        <v>0.6489946697320903</v>
       </c>
       <c r="L7">
-        <v>0.1977776364612112</v>
+        <v>0.213516328565774</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.090398290041833</v>
+        <v>1.158473629041339</v>
       </c>
       <c r="C8">
-        <v>0.06610982356549044</v>
+        <v>0.03280185618442033</v>
       </c>
       <c r="D8">
-        <v>0.4343555956004792</v>
+        <v>0.304827745216528</v>
       </c>
       <c r="E8">
-        <v>0.06787517369973983</v>
+        <v>0.0855422621095272</v>
       </c>
       <c r="F8">
-        <v>6.687423822761389</v>
+        <v>4.545138293844047</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.815785244738322</v>
+        <v>0.6701620266318002</v>
       </c>
       <c r="L8">
-        <v>0.23310399701694</v>
+        <v>0.2205378824116906</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.457390992941356</v>
+        <v>1.214139903148293</v>
       </c>
       <c r="C9">
-        <v>0.08322608190903225</v>
+        <v>0.03720773664952404</v>
       </c>
       <c r="D9">
-        <v>0.5307568519797314</v>
+        <v>0.3352084593906426</v>
       </c>
       <c r="E9">
-        <v>0.08325461004015722</v>
+        <v>0.08902139005117249</v>
       </c>
       <c r="F9">
-        <v>8.530033960140855</v>
+        <v>5.077144509861768</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.121723485450161</v>
+        <v>0.7178550510727177</v>
       </c>
       <c r="L9">
-        <v>0.3065451606478433</v>
+        <v>0.2354845402657446</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.747868994456184</v>
+        <v>1.260234718278213</v>
       </c>
       <c r="C10">
-        <v>0.0967462375313346</v>
+        <v>0.04034064433363227</v>
       </c>
       <c r="D10">
-        <v>0.6045268705297815</v>
+        <v>0.3571981080038995</v>
       </c>
       <c r="E10">
-        <v>0.09521480047706632</v>
+        <v>0.09171581356577718</v>
       </c>
       <c r="F10">
-        <v>9.946610452775275</v>
+        <v>5.469705866913387</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.364143521164777</v>
+        <v>0.7567237436143728</v>
       </c>
       <c r="L10">
-        <v>0.3640074631853025</v>
+        <v>0.2471937039238838</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.886024500469517</v>
+        <v>1.282345237153834</v>
       </c>
       <c r="C11">
-        <v>0.1032098443278713</v>
+        <v>0.04174540326025777</v>
       </c>
       <c r="D11">
-        <v>0.6390248907436273</v>
+        <v>0.3671363910970911</v>
       </c>
       <c r="E11">
-        <v>0.1008442158637592</v>
+        <v>0.09297198724314626</v>
       </c>
       <c r="F11">
-        <v>10.61004339688475</v>
+        <v>5.648740027691247</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.479592033551938</v>
+        <v>0.7752508165879703</v>
       </c>
       <c r="L11">
-        <v>0.3911613371026732</v>
+        <v>0.2526808745670053</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.93935040018124</v>
+        <v>1.290882992621647</v>
       </c>
       <c r="C12">
-        <v>0.105713220471074</v>
+        <v>0.0422745836962477</v>
       </c>
       <c r="D12">
-        <v>0.6522524612864515</v>
+        <v>0.3708909178179738</v>
       </c>
       <c r="E12">
-        <v>0.1030073937672782</v>
+        <v>0.09345207302573044</v>
       </c>
       <c r="F12">
-        <v>10.86452295828713</v>
+        <v>5.716606895914367</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.524183702346392</v>
+        <v>0.7823891224854265</v>
       </c>
       <c r="L12">
-        <v>0.4016140866600608</v>
+        <v>0.2547819814463281</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.927818291912757</v>
+        <v>1.289036883633713</v>
       </c>
       <c r="C13">
-        <v>0.1051714051243167</v>
+        <v>0.04216073583808111</v>
       </c>
       <c r="D13">
-        <v>0.6493958749292972</v>
+        <v>0.3700827013004471</v>
       </c>
       <c r="E13">
-        <v>0.1025400413183313</v>
+        <v>0.09334848195986467</v>
       </c>
       <c r="F13">
-        <v>10.80956260036902</v>
+        <v>5.701987335881995</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.514538939798115</v>
+        <v>0.7808462972132588</v>
       </c>
       <c r="L13">
-        <v>0.3993549063452377</v>
+        <v>0.2543284348854655</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.89039052151486</v>
+        <v>1.283044332293031</v>
       </c>
       <c r="C14">
-        <v>0.1034146138292016</v>
+        <v>0.04178899384593393</v>
       </c>
       <c r="D14">
-        <v>0.6401096664105239</v>
+        <v>0.3674454537592169</v>
       </c>
       <c r="E14">
-        <v>0.1010215248811015</v>
+        <v>0.09301139589449292</v>
       </c>
       <c r="F14">
-        <v>10.63091119486751</v>
+        <v>5.654322033977451</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.483242288233868</v>
+        <v>0.775835628760575</v>
       </c>
       <c r="L14">
-        <v>0.392017728735766</v>
+        <v>0.2528532674354125</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.867601031560866</v>
+        <v>1.279395231182775</v>
       </c>
       <c r="C15">
-        <v>0.102346135536969</v>
+        <v>0.04156093515011605</v>
       </c>
       <c r="D15">
-        <v>0.6344438657786213</v>
+        <v>0.3658289197512943</v>
       </c>
       <c r="E15">
-        <v>0.100095622242204</v>
+        <v>0.09280549453920628</v>
       </c>
       <c r="F15">
-        <v>10.52192209611673</v>
+        <v>5.625134991443588</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.464190181593125</v>
+        <v>0.7727824312115956</v>
       </c>
       <c r="L15">
-        <v>0.3875464384525458</v>
+        <v>0.251952714760165</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.738973129000129</v>
+        <v>1.258812786651845</v>
       </c>
       <c r="C16">
-        <v>0.09633100584873233</v>
+        <v>0.04024844323686239</v>
       </c>
       <c r="D16">
-        <v>0.6022936247509278</v>
+        <v>0.3565473498899223</v>
       </c>
       <c r="E16">
-        <v>0.09485105669321925</v>
+        <v>0.09163433434172674</v>
       </c>
       <c r="F16">
-        <v>9.903678897485349</v>
+        <v>5.458015160744338</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.356713441879123</v>
+        <v>0.7555300479886</v>
       </c>
       <c r="L16">
-        <v>0.3622553027068705</v>
+        <v>0.2468383481203347</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.66170117759259</v>
+        <v>1.246479115466002</v>
       </c>
       <c r="C17">
-        <v>0.09272824686794223</v>
+        <v>0.03943815943855355</v>
       </c>
       <c r="D17">
-        <v>0.5828304437263228</v>
+        <v>0.350837099378623</v>
       </c>
       <c r="E17">
-        <v>0.09168489558880566</v>
+        <v>0.09092368210847823</v>
       </c>
       <c r="F17">
-        <v>9.529624941918655</v>
+        <v>5.355612851994124</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.292191105637897</v>
+        <v>0.7451634744682565</v>
       </c>
       <c r="L17">
-        <v>0.3470160005310419</v>
+        <v>0.2437420841302469</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.617812839871789</v>
+        <v>1.239492532319787</v>
       </c>
       <c r="C18">
-        <v>0.09068478521111345</v>
+        <v>0.03897017399986424</v>
       </c>
       <c r="D18">
-        <v>0.5717222438398153</v>
+        <v>0.3475465768217134</v>
       </c>
       <c r="E18">
-        <v>0.08988127158813697</v>
+        <v>0.09051780025870571</v>
       </c>
       <c r="F18">
-        <v>9.316234965719076</v>
+        <v>5.296756376690837</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.255557392702542</v>
+        <v>0.7392804225294185</v>
       </c>
       <c r="L18">
-        <v>0.3383445539258503</v>
+        <v>0.2419763041688867</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.60304450467703</v>
+        <v>1.237145420554185</v>
       </c>
       <c r="C19">
-        <v>0.08999754250590897</v>
+        <v>0.03881138542279672</v>
       </c>
       <c r="D19">
-        <v>0.5679752413865344</v>
+        <v>0.3464313946491444</v>
       </c>
       <c r="E19">
-        <v>0.08927347360246074</v>
+        <v>0.09038086739766271</v>
       </c>
       <c r="F19">
-        <v>9.244271783071042</v>
+        <v>5.276835756767696</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.243232246866057</v>
+        <v>0.7373021532995381</v>
       </c>
       <c r="L19">
-        <v>0.3354239730273747</v>
+        <v>0.2413810322732672</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.669868338643226</v>
+        <v>1.247780932725789</v>
       </c>
       <c r="C20">
-        <v>0.09310871893705297</v>
+        <v>0.03952461426116116</v>
       </c>
       <c r="D20">
-        <v>0.5848931833054962</v>
+        <v>0.3514455972519102</v>
       </c>
       <c r="E20">
-        <v>0.09202010157507345</v>
+        <v>0.09099903544255028</v>
       </c>
       <c r="F20">
-        <v>9.569258374510071</v>
+        <v>5.366509305552256</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.299009281229331</v>
+        <v>0.7462587765673732</v>
       </c>
       <c r="L20">
-        <v>0.3486283769823046</v>
+        <v>0.2440701219824177</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.90135531357862</v>
+        <v>1.28480000583906</v>
       </c>
       <c r="C21">
-        <v>0.1039290191151991</v>
+        <v>0.0418982573732265</v>
       </c>
       <c r="D21">
-        <v>0.6428325526662775</v>
+        <v>0.3682203148375436</v>
       </c>
       <c r="E21">
-        <v>0.1014666593645401</v>
+        <v>0.09311028667224619</v>
       </c>
       <c r="F21">
-        <v>10.68329271251611</v>
+        <v>5.668320535046121</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.49241002252748</v>
+        <v>0.7773040513272917</v>
       </c>
       <c r="L21">
-        <v>0.3941680058975408</v>
+        <v>0.2532859281766662</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.058612132733629</v>
+        <v>1.309956138354551</v>
       </c>
       <c r="C22">
-        <v>0.1113319339261167</v>
+        <v>0.04343349468096847</v>
       </c>
       <c r="D22">
-        <v>0.6816711419470778</v>
+        <v>0.3791319824927655</v>
       </c>
       <c r="E22">
-        <v>0.1078262407150348</v>
+        <v>0.09451576762985425</v>
       </c>
       <c r="F22">
-        <v>11.4306276516059</v>
+        <v>5.865984989641731</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.623977150647534</v>
+        <v>0.7983084318170199</v>
       </c>
       <c r="L22">
-        <v>0.424936592642652</v>
+        <v>0.2594444852623212</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.97408180396917</v>
+        <v>1.296441541160618</v>
       </c>
       <c r="C23">
-        <v>0.1073465471601551</v>
+        <v>0.04261552578533667</v>
       </c>
       <c r="D23">
-        <v>0.6608427250161242</v>
+        <v>0.3733127902918625</v>
       </c>
       <c r="E23">
-        <v>0.104413434801689</v>
+        <v>0.09376328201953044</v>
       </c>
       <c r="F23">
-        <v>11.02980945413236</v>
+        <v>5.760448276784757</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.55323603798243</v>
+        <v>0.7870323116867439</v>
       </c>
       <c r="L23">
-        <v>0.4084137961134786</v>
+        <v>0.2561451029434778</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.666174305194744</v>
+        <v>1.247192056615802</v>
       </c>
       <c r="C24">
-        <v>0.0929366216712495</v>
+        <v>0.03948553472231708</v>
       </c>
       <c r="D24">
-        <v>0.5839603671894338</v>
+        <v>0.3511705191425278</v>
       </c>
       <c r="E24">
-        <v>0.09186850342341657</v>
+        <v>0.09096495984908515</v>
       </c>
       <c r="F24">
-        <v>9.551334971441207</v>
+        <v>5.361582969508987</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.295925357606308</v>
+        <v>0.7457633512516395</v>
       </c>
       <c r="L24">
-        <v>0.347899143578644</v>
+        <v>0.2439217715281927</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.354899986896839</v>
+        <v>1.198172025980995</v>
       </c>
       <c r="C25">
-        <v>0.07846226840021586</v>
+        <v>0.03603481746144865</v>
       </c>
       <c r="D25">
-        <v>0.5042522682316957</v>
+        <v>0.3270499636984283</v>
       </c>
       <c r="E25">
-        <v>0.07899176152268694</v>
+        <v>0.08805602403618451</v>
       </c>
       <c r="F25">
-        <v>8.022167631572813</v>
+        <v>4.932950692271561</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.036265447805079</v>
+        <v>0.704284794220456</v>
       </c>
       <c r="L25">
-        <v>0.2861387109651474</v>
+        <v>0.2313139945974712</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_163/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.165568306009249</v>
+        <v>1.139162226358053</v>
       </c>
       <c r="C2">
-        <v>0.0334234178857109</v>
+        <v>0.06839903901509814</v>
       </c>
       <c r="D2">
-        <v>0.3090660498759803</v>
+        <v>0.4474298933270262</v>
       </c>
       <c r="E2">
-        <v>0.08600710581194093</v>
+        <v>0.06993801069848971</v>
       </c>
       <c r="F2">
-        <v>4.618477121752477</v>
+        <v>6.936454089477394</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6763136704455803</v>
+        <v>0.8564354838277666</v>
       </c>
       <c r="L2">
-        <v>0.2225196855931131</v>
+        <v>0.2429257196443757</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.145630774578621</v>
+        <v>0.9994847851963584</v>
       </c>
       <c r="C3">
-        <v>0.03160631916467338</v>
+        <v>0.06181711267437962</v>
       </c>
       <c r="D3">
-        <v>0.2967283011829522</v>
+        <v>0.4097053872138758</v>
       </c>
       <c r="E3">
-        <v>0.08467592048555161</v>
+        <v>0.06401161010983358</v>
       </c>
       <c r="F3">
-        <v>4.405935134467256</v>
+        <v>6.218941232599263</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6589400703126387</v>
+        <v>0.7399788302270736</v>
       </c>
       <c r="L3">
-        <v>0.2168610581895081</v>
+        <v>0.2147322958560096</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.134448267733461</v>
+        <v>0.9164131117153715</v>
       </c>
       <c r="C4">
-        <v>0.03046620734637884</v>
+        <v>0.05785589861357465</v>
       </c>
       <c r="D4">
-        <v>0.2890757357964588</v>
+        <v>0.3868202614535221</v>
       </c>
       <c r="E4">
-        <v>0.08388671296320993</v>
+        <v>0.06045964405648974</v>
       </c>
       <c r="F4">
-        <v>4.27568200701856</v>
+        <v>5.785456734534534</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6490472067142861</v>
+        <v>0.6706712186432213</v>
       </c>
       <c r="L4">
-        <v>0.2135342625218755</v>
+        <v>0.1978693482170968</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.130157057674921</v>
+        <v>0.8831665899368488</v>
       </c>
       <c r="C5">
-        <v>0.02999531420208257</v>
+        <v>0.0562568613332104</v>
       </c>
       <c r="D5">
-        <v>0.2859374313792102</v>
+        <v>0.3775496167977082</v>
       </c>
       <c r="E5">
-        <v>0.08357216748360585</v>
+        <v>0.05903183328427986</v>
       </c>
       <c r="F5">
-        <v>4.222660805723308</v>
+        <v>5.610325781568974</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6452098223988401</v>
+        <v>0.6429170679721352</v>
       </c>
       <c r="L5">
-        <v>0.2122155782463295</v>
+        <v>0.1910980412506831</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.129460539230024</v>
+        <v>0.8776806721881201</v>
       </c>
       <c r="C6">
-        <v>0.0299167385449195</v>
+        <v>0.05599212391050301</v>
       </c>
       <c r="D6">
-        <v>0.2854151087299499</v>
+        <v>0.3760131638677535</v>
       </c>
       <c r="E6">
-        <v>0.08352036362281723</v>
+        <v>0.05879587202057834</v>
       </c>
       <c r="F6">
-        <v>4.213860048901381</v>
+        <v>5.58132987016316</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6445843257182844</v>
+        <v>0.6383363209709358</v>
       </c>
       <c r="L6">
-        <v>0.2119988440229292</v>
+        <v>0.189979404177393</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.134389319740308</v>
+        <v>0.9159623733718831</v>
       </c>
       <c r="C7">
-        <v>0.03045988237635555</v>
+        <v>0.05783427814046149</v>
       </c>
       <c r="D7">
-        <v>0.2890334923381914</v>
+        <v>0.3866950291486262</v>
       </c>
       <c r="E7">
-        <v>0.08388244231311859</v>
+        <v>0.0604403113359453</v>
       </c>
       <c r="F7">
-        <v>4.274966715616443</v>
+        <v>5.783089041445294</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6489946697320903</v>
+        <v>0.6702950149148847</v>
       </c>
       <c r="L7">
-        <v>0.213516328565774</v>
+        <v>0.1977776364608843</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.158473629041339</v>
+        <v>1.090398290041776</v>
       </c>
       <c r="C8">
-        <v>0.03280185618442033</v>
+        <v>0.06610982356593098</v>
       </c>
       <c r="D8">
-        <v>0.304827745216528</v>
+        <v>0.4343555955999818</v>
       </c>
       <c r="E8">
-        <v>0.0855422621095272</v>
+        <v>0.06787517369972207</v>
       </c>
       <c r="F8">
-        <v>4.545138293844047</v>
+        <v>6.687423822761417</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6701620266318002</v>
+        <v>0.815785244738322</v>
       </c>
       <c r="L8">
-        <v>0.2205378824116906</v>
+        <v>0.2331039970169542</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.214139903148293</v>
+        <v>1.45739099294147</v>
       </c>
       <c r="C9">
-        <v>0.03720773664952404</v>
+        <v>0.08322608190903225</v>
       </c>
       <c r="D9">
-        <v>0.3352084593906426</v>
+        <v>0.5307568519794899</v>
       </c>
       <c r="E9">
-        <v>0.08902139005117249</v>
+        <v>0.08325461004015366</v>
       </c>
       <c r="F9">
-        <v>5.077144509861768</v>
+        <v>8.530033960140884</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7178550510727177</v>
+        <v>1.121723485450019</v>
       </c>
       <c r="L9">
-        <v>0.2354845402657446</v>
+        <v>0.3065451606478149</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.260234718278213</v>
+        <v>1.747868994456525</v>
       </c>
       <c r="C10">
-        <v>0.04034064433363227</v>
+        <v>0.09674623753129197</v>
       </c>
       <c r="D10">
-        <v>0.3571981080038995</v>
+        <v>0.6045268705297246</v>
       </c>
       <c r="E10">
-        <v>0.09171581356577718</v>
+        <v>0.09521480047709119</v>
       </c>
       <c r="F10">
-        <v>5.469705866913387</v>
+        <v>9.946610452775417</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7567237436143728</v>
+        <v>1.364143521164863</v>
       </c>
       <c r="L10">
-        <v>0.2471937039238838</v>
+        <v>0.3640074631852883</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.282345237153834</v>
+        <v>1.886024500469517</v>
       </c>
       <c r="C11">
-        <v>0.04174540326025777</v>
+        <v>0.1032098443282834</v>
       </c>
       <c r="D11">
-        <v>0.3671363910970911</v>
+        <v>0.6390248907437126</v>
       </c>
       <c r="E11">
-        <v>0.09297198724314626</v>
+        <v>0.1008442158637628</v>
       </c>
       <c r="F11">
-        <v>5.648740027691247</v>
+        <v>10.61004339688492</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7752508165879703</v>
+        <v>1.479592033551569</v>
       </c>
       <c r="L11">
-        <v>0.2526808745670053</v>
+        <v>0.3911613371023748</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.290882992621647</v>
+        <v>1.939350400181212</v>
       </c>
       <c r="C12">
-        <v>0.0422745836962477</v>
+        <v>0.1057132204710385</v>
       </c>
       <c r="D12">
-        <v>0.3708909178179738</v>
+        <v>0.6522524612864231</v>
       </c>
       <c r="E12">
-        <v>0.09345207302573044</v>
+        <v>0.1030073937672498</v>
       </c>
       <c r="F12">
-        <v>5.716606895914367</v>
+        <v>10.86452295828724</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7823891224854265</v>
+        <v>1.524183702346562</v>
       </c>
       <c r="L12">
-        <v>0.2547819814463281</v>
+        <v>0.4016140866601035</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.289036883633713</v>
+        <v>1.927818291913042</v>
       </c>
       <c r="C13">
-        <v>0.04216073583808111</v>
+        <v>0.1051714051233645</v>
       </c>
       <c r="D13">
-        <v>0.3700827013004471</v>
+        <v>0.649395874929013</v>
       </c>
       <c r="E13">
-        <v>0.09334848195986467</v>
+        <v>0.1025400413182211</v>
       </c>
       <c r="F13">
-        <v>5.701987335881995</v>
+        <v>10.80956260036902</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7808462972132588</v>
+        <v>1.514538939798257</v>
       </c>
       <c r="L13">
-        <v>0.2543284348854655</v>
+        <v>0.3993549063454793</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.283044332293031</v>
+        <v>1.890390521514746</v>
       </c>
       <c r="C14">
-        <v>0.04178899384593393</v>
+        <v>0.103414613829159</v>
       </c>
       <c r="D14">
-        <v>0.3674454537592169</v>
+        <v>0.6401096664104671</v>
       </c>
       <c r="E14">
-        <v>0.09301139589449292</v>
+        <v>0.101021524881201</v>
       </c>
       <c r="F14">
-        <v>5.654322033977451</v>
+        <v>10.63091119486779</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.775835628760575</v>
+        <v>1.483242288234123</v>
       </c>
       <c r="L14">
-        <v>0.2528532674354125</v>
+        <v>0.3920177287357376</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.279395231182775</v>
+        <v>1.867601031560298</v>
       </c>
       <c r="C15">
-        <v>0.04156093515011605</v>
+        <v>0.1023461355364148</v>
       </c>
       <c r="D15">
-        <v>0.3658289197512943</v>
+        <v>0.6344438657782803</v>
       </c>
       <c r="E15">
-        <v>0.09280549453920628</v>
+        <v>0.1000956222423035</v>
       </c>
       <c r="F15">
-        <v>5.625134991443588</v>
+        <v>10.5219220961169</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7727824312115956</v>
+        <v>1.464190181593096</v>
       </c>
       <c r="L15">
-        <v>0.251952714760165</v>
+        <v>0.3875464384525031</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.258812786651845</v>
+        <v>1.738973129000271</v>
       </c>
       <c r="C16">
-        <v>0.04024844323686239</v>
+        <v>0.0963310058486968</v>
       </c>
       <c r="D16">
-        <v>0.3565473498899223</v>
+        <v>0.6022936247503878</v>
       </c>
       <c r="E16">
-        <v>0.09163433434172674</v>
+        <v>0.09485105669338267</v>
       </c>
       <c r="F16">
-        <v>5.458015160744338</v>
+        <v>9.903678897485435</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7555300479886</v>
+        <v>1.356713441879407</v>
       </c>
       <c r="L16">
-        <v>0.2468383481203347</v>
+        <v>0.3622553027067994</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.246479115466002</v>
+        <v>1.661701177592704</v>
       </c>
       <c r="C17">
-        <v>0.03943815943855355</v>
+        <v>0.0927282468678996</v>
       </c>
       <c r="D17">
-        <v>0.350837099378623</v>
+        <v>0.5828304437262375</v>
       </c>
       <c r="E17">
-        <v>0.09092368210847823</v>
+        <v>0.09168489558883763</v>
       </c>
       <c r="F17">
-        <v>5.355612851994124</v>
+        <v>9.529624941918797</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7451634744682565</v>
+        <v>1.292191105637841</v>
       </c>
       <c r="L17">
-        <v>0.2437420841302469</v>
+        <v>0.3470160005307434</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.239492532319787</v>
+        <v>1.61781283987213</v>
       </c>
       <c r="C18">
-        <v>0.03897017399986424</v>
+        <v>0.09068478521152912</v>
       </c>
       <c r="D18">
-        <v>0.3475465768217134</v>
+        <v>0.5717222438395595</v>
       </c>
       <c r="E18">
-        <v>0.09051780025870571</v>
+        <v>0.08988127158822934</v>
       </c>
       <c r="F18">
-        <v>5.296756376690837</v>
+        <v>9.316234965719161</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7392804225294185</v>
+        <v>1.255557392702286</v>
       </c>
       <c r="L18">
-        <v>0.2419763041688867</v>
+        <v>0.3383445539258219</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.237145420554185</v>
+        <v>1.603044504677399</v>
       </c>
       <c r="C19">
-        <v>0.03881138542279672</v>
+        <v>0.08999754250550396</v>
       </c>
       <c r="D19">
-        <v>0.3464313946491444</v>
+        <v>0.5679752413865913</v>
       </c>
       <c r="E19">
-        <v>0.09038086739766271</v>
+        <v>0.0892734736026064</v>
       </c>
       <c r="F19">
-        <v>5.276835756767696</v>
+        <v>9.244271783070985</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7373021532995381</v>
+        <v>1.243232246866</v>
       </c>
       <c r="L19">
-        <v>0.2413810322732672</v>
+        <v>0.3354239730274031</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.247780932725789</v>
+        <v>1.669868338642715</v>
       </c>
       <c r="C20">
-        <v>0.03952461426116116</v>
+        <v>0.09310871893618611</v>
       </c>
       <c r="D20">
-        <v>0.3514455972519102</v>
+        <v>0.5848931833051552</v>
       </c>
       <c r="E20">
-        <v>0.09099903544255028</v>
+        <v>0.09202010157512674</v>
       </c>
       <c r="F20">
-        <v>5.366509305552256</v>
+        <v>9.5692583745099</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7462587765673732</v>
+        <v>1.29900928122936</v>
       </c>
       <c r="L20">
-        <v>0.2440701219824177</v>
+        <v>0.348628376982191</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.28480000583906</v>
+        <v>1.901355313578819</v>
       </c>
       <c r="C21">
-        <v>0.0418982573732265</v>
+        <v>0.1039290191152986</v>
       </c>
       <c r="D21">
-        <v>0.3682203148375436</v>
+        <v>0.6428325526661638</v>
       </c>
       <c r="E21">
-        <v>0.09311028667224619</v>
+        <v>0.1014666593645401</v>
       </c>
       <c r="F21">
-        <v>5.668320535046121</v>
+        <v>10.68329271251577</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7773040513272917</v>
+        <v>1.492410022527395</v>
       </c>
       <c r="L21">
-        <v>0.2532859281766662</v>
+        <v>0.3941680058974555</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.309956138354551</v>
+        <v>2.058612132734254</v>
       </c>
       <c r="C22">
-        <v>0.04343349468096847</v>
+        <v>0.1113319339265502</v>
       </c>
       <c r="D22">
-        <v>0.3791319824927655</v>
+        <v>0.6816711419469925</v>
       </c>
       <c r="E22">
-        <v>0.09451576762985425</v>
+        <v>0.1078262407149992</v>
       </c>
       <c r="F22">
-        <v>5.865984989641731</v>
+        <v>11.43062765160619</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7983084318170199</v>
+        <v>1.62397715064742</v>
       </c>
       <c r="L22">
-        <v>0.2594444852623212</v>
+        <v>0.4249365926429363</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.296441541160618</v>
+        <v>1.974081803969511</v>
       </c>
       <c r="C23">
-        <v>0.04261552578533667</v>
+        <v>0.1073465471610717</v>
       </c>
       <c r="D23">
-        <v>0.3733127902918625</v>
+        <v>0.6608427250165221</v>
       </c>
       <c r="E23">
-        <v>0.09376328201953044</v>
+        <v>0.1044134348017884</v>
       </c>
       <c r="F23">
-        <v>5.760448276784757</v>
+        <v>11.02980945413253</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7870323116867439</v>
+        <v>1.553236037982373</v>
       </c>
       <c r="L23">
-        <v>0.2561451029434778</v>
+        <v>0.4084137961134502</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.247192056615802</v>
+        <v>1.666174305194573</v>
       </c>
       <c r="C24">
-        <v>0.03948553472231708</v>
+        <v>0.09293662167070948</v>
       </c>
       <c r="D24">
-        <v>0.3511705191425278</v>
+        <v>0.5839603671888938</v>
       </c>
       <c r="E24">
-        <v>0.09096495984908515</v>
+        <v>0.0918685034233846</v>
       </c>
       <c r="F24">
-        <v>5.361582969508987</v>
+        <v>9.551334971441349</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7457633512516395</v>
+        <v>1.295925357606222</v>
       </c>
       <c r="L24">
-        <v>0.2439217715281927</v>
+        <v>0.3478991435787009</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.198172025980995</v>
+        <v>1.354899986897095</v>
       </c>
       <c r="C25">
-        <v>0.03603481746144865</v>
+        <v>0.07846226840064219</v>
       </c>
       <c r="D25">
-        <v>0.3270499636984283</v>
+        <v>0.5042522682316815</v>
       </c>
       <c r="E25">
-        <v>0.08805602403618451</v>
+        <v>0.07899176152268339</v>
       </c>
       <c r="F25">
-        <v>4.932950692271561</v>
+        <v>8.022167631572813</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.704284794220456</v>
+        <v>1.036265447804936</v>
       </c>
       <c r="L25">
-        <v>0.2313139945974712</v>
+        <v>0.2861387109650195</v>
       </c>
       <c r="M25">
         <v>0</v>
